--- a/fastqFiles/fastq_1755.xlsx
+++ b/fastqFiles/fastq_1755.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -541,7 +541,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -687,7 +687,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -792,7 +792,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>fullRNASEQ</t>
+          <t>fullRNASeq</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">

--- a/fastqFiles/fastq_1755.xlsx
+++ b/fastqFiles/fastq_1755.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t xml:space="preserve">libraryDate</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t xml:space="preserve">run_1755_s_6_withindex_sequence_CACCTCC.fastq.gz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[64]</t>
   </si>
   <si>
     <t xml:space="preserve">run_1755_s_6_withindex_sequence_ATCGAGC.fastq.gz</t>
@@ -192,12 +195,14 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U9" activeCellId="0" sqref="U9"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="1" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -311,11 +316,11 @@
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I5" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>9</v>
       </c>
@@ -332,16 +337,16 @@
         <v>11</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I6" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>9</v>
       </c>
@@ -358,13 +363,13 @@
         <v>11</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="0" t="n">
-        <v>64</v>
+      <c r="I7" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -384,7 +389,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -404,7 +409,7 @@
         <v>11</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -424,7 +429,7 @@
         <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -444,7 +449,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -464,7 +469,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -484,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
